--- a/tut04/output_by_subject/ME209.csv.xlsx
+++ b/tut04/output_by_subject/ME209.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,6 +1778,1348 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2001ME01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2001ME02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2001ME04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2001ME06</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2001ME07</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2001ME08</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2001ME12</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2001ME13</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2001ME15</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2001ME16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2001ME19</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2001ME21</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2001ME23</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2001ME25</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2001ME26</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2001ME29</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2001ME31</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2001ME32</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2001ME33</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2001ME35</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2001ME36</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2001ME38</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2001ME39</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2001ME40</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2001ME42</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2001ME43</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2001ME47</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2001ME48</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2001ME50</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2001ME53</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2001ME54</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2001ME55</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2001ME56</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2001ME57</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2001ME58</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2001ME59</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2001ME62</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2001ME63</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2001ME64</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2001ME66</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2001ME67</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2001ME69</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2001ME75</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2001ME80</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2001ME81</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2001ME83</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2001ME82</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2001ME79</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2001ME78</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2001ME77</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2001ME76</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2001ME71</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2001ME70</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2001ME52</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2001ME45</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2001ME41</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2001ME30</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2001ME28</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2001ME17</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2001ME14</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2001ME05</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ME209</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
